--- a/xlsx_files/White classroom.xlsx
+++ b/xlsx_files/White classroom.xlsx
@@ -545,31 +545,31 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: PHYSICS II
+          <t>CS SENIOR: INFORMATION SECURITY
 09:00-10:30</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: RUSSIAN LANGUAGE (ELEMENTARY LEVEL)
+          <t>CS SENIOR: FINAL YEAR PROJECT II
 09:00-10:30</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: PHYSICS II
+          <t>CS SENIOR: INFORMATION SECURITY
 09:00-10:30</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DATABASE MANAGEMENT SYSTEMS
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (ELEMENTARY LEVEL)
 09:00-10:30</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: PHYSICS II
+          <t>CS SENIOR: INFORMATION SECURITY
 09:00-10:30</t>
         </is>
       </c>
@@ -656,31 +656,31 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
+          <t>CS SENIOR: MODELING &amp; SIMULATION
 11:00-12:30</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
+          <t>CM FRESHMEN: ENGLISH WRITING FOR MEDIA
 11:00-12:30</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
+          <t>CS SENIOR: MODELING &amp; SIMULATION
 11:00-12:30</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: HISTORY OF KYRGYZSTAN
-11:00-12:00</t>
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
+11:00-12:30</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
+          <t>CS SENIOR: MODELING &amp; SIMULATION
 11:00-12:30</t>
         </is>
       </c>
@@ -718,7 +718,7 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
@@ -730,6 +730,7 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
@@ -741,6 +742,7 @@
       <c r="B19" s="7" t="n"/>
       <c r="C19" s="7" t="n"/>
       <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
@@ -793,31 +795,31 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
+          <t>CM FRESHMEN: MATHEMATICS II
 14:00-15:30</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: SOCIOLOGY
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
 14:00-15:30</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
+          <t>CM FRESHMEN: MATHEMATICS II
 14:00-15:30</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: OPERATING SYSTEMS AND SYSTEM PROGRAMMING
+          <t>CM FRESHMEN: SOCIOLOGY
 14:00-15:30</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
+          <t>CM FRESHMEN: MATHEMATICS II
 14:00-15:30</t>
         </is>
       </c>
@@ -904,31 +906,31 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: LINEAR ALGEBRA
+          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
 16:00-17:30</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: DATABASE MANAGEMENT SYSTEMS
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (ELEMENTARY LEVEL)
 16:00-17:30</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: LINEAR ALGEBRA
+          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
 16:00-17:30</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: MACHINE LEARNING
+          <t>CM FRESHMEN: MEDIA LITERACY
 16:00-17:30</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: LINEAR ALGEBRA
+          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
 16:00-17:30</t>
         </is>
       </c>
@@ -1185,7 +1187,6 @@
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="E14:E17"/>
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
@@ -1197,6 +1198,7 @@
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="F6:F11"/>
+    <mergeCell ref="E14:E19"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
